--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
   <si>
     <t>anchor score</t>
   </si>
@@ -103,58 +103,58 @@
     <t>fight</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>positive</t>
@@ -793,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>47</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9316239316239316</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.8899082568807339</v>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.889763779527559</v>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0.8297872340425532</v>
@@ -1075,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.8282828282828283</v>
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>0.8125</v>
@@ -1175,7 +1175,7 @@
         <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0.8076923076923077</v>
@@ -1225,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0.7931034482758621</v>
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0.7771883289124668</v>
@@ -1325,28 +1325,28 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7554585152838428</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1375,28 +1375,28 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1425,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>0.6784452296819788</v>
@@ -1475,28 +1475,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.6728395061728395</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1528,13 +1528,13 @@
         <v>46</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1904,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1311475409836066</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="E24">
         <v>0.93</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>54</v>
@@ -1954,28 +1954,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06008583690987124</v>
+        <v>0.02197112366603892</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>199</v>
+        <v>585</v>
       </c>
       <c r="E25">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F25">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>219</v>
+        <v>1558</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25">
         <v>0.4579207920792079</v>
@@ -2004,25 +2004,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02197112366603892</v>
+        <v>0.01852668725187473</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>585</v>
+        <v>882</v>
       </c>
       <c r="E26">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F26">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1558</v>
+        <v>2225</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>55</v>
@@ -2050,30 +2050,6 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.01852668725187473</v>
-      </c>
-      <c r="C27">
-        <v>42</v>
-      </c>
-      <c r="D27">
-        <v>882</v>
-      </c>
-      <c r="E27">
-        <v>0.95</v>
-      </c>
-      <c r="F27">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2225</v>
-      </c>
       <c r="J27" s="1" t="s">
         <v>56</v>
       </c>
@@ -3089,7 +3065,7 @@
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K66">
         <v>0.2740619902120718</v>
@@ -3141,7 +3117,7 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K68">
         <v>0.260910815939279</v>
